--- a/medicine/Psychotrope/Bracongo/Bracongo.xlsx
+++ b/medicine/Psychotrope/Bracongo/Bracongo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bracongo (acronyme des « Brasseries du Congo »), est une entreprise brassicole par actions à responsabilité limitée et établie à Kinshasa, en République démocratique du Congo[1]. Bracongo est une filiale des Brasseries et glacières internationales (groupe BGI), elle-même filiale du Groupe Castel dont le fondateur est Pierre Castel[1]. Elle a pour objectif de produire des boissons de bonne qualité pour le peuple congolais[passage promotionnel].
+Bracongo (acronyme des « Brasseries du Congo »), est une entreprise brassicole par actions à responsabilité limitée et établie à Kinshasa, en République démocratique du Congo. Bracongo est une filiale des Brasseries et glacières internationales (groupe BGI), elle-même filiale du Groupe Castel dont le fondateur est Pierre Castel. Elle a pour objectif de produire des boissons de bonne qualité pour le peuple congolais[passage promotionnel].
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bracongo fut créée en 1949 à Stanleyville (désormais Kisangani) en Province Orientale sous l’initiative du général Alfred Dupont. Ses premières installations furent inaugurées en décembre 1951.
 En 1960, elle a officiellement fusionné avec trois autres brasseries qui fonctionnaient de façon autonome. Ainsi est née l’UNIBRA (Union des brasseries) constituée de :
@@ -554,7 +568,9 @@
           <t>Couverture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle couvre la RDC avec une présence diversifiée dans les provinces :
 Kinshasa
@@ -564,7 +580,7 @@
 Katanga
 Province Orientale
 Actuellement leader du marché brassicole congolais, son leadership technologique s'inscrit dans la logique des standards internationaux.
-Parmi ses produits, on compte de l'eau minérale Eau Vive, des boissons gazeuses World Cola, Top, D'jino, boisson énergisante XXL Energy et des bières, notamment : Skol[2], Tembo, Doppel Munich, 33 Export, Castel beer, Nkoyi Blonde, Nkoyi Black, Nkoyi Rumba, Beaufort Lager et les vins et spiritueux de la Maison Castel.
+Parmi ses produits, on compte de l'eau minérale Eau Vive, des boissons gazeuses World Cola, Top, D'jino, boisson énergisante XXL Energy et des bières, notamment : Skol, Tembo, Doppel Munich, 33 Export, Castel beer, Nkoyi Blonde, Nkoyi Black, Nkoyi Rumba, Beaufort Lager et les vins et spiritueux de la Maison Castel.
 </t>
         </is>
       </c>
@@ -593,9 +609,11 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La bière Skol[3], titrée à 5°, existe en bouteille de 50 et 65 cL.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La bière Skol, titrée à 5°, existe en bouteille de 50 et 65 cL.
 La bière Nkoyi existe également sous trois formats (brune, aromatisée et blonde) : 33, 50 et 65 cl.
 La bière 33 export : 65 cl.
 La bière Tembo : en 33 et 65 cl.
@@ -628,7 +646,9 @@
           <t>Boissons gazeuses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les boissons gazeuses des gammes panafricaines TOP et D'Jino disponibles dans les parfums orange, ananas, grenadine, tropical, pomme, limonade sont disponibles dans les formats verre en 33 et 50 cl et dans le format plastique PET en 30 et 150 cl.
 Le portefeuille boissons gazeuses est complété de la World Cola, boisson gazeuse à base de cola disponible en format verre 33 et 50 cl et en format plastique PET en 30 et 150 cl.
@@ -660,10 +680,12 @@
           <t>Contentieux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2017, la Bracongo s'est opposée à l'artiste dessinateur et peintre Barly Baruti devant les cours et tribunaux de la République démocratique du Congo sur l'utilisation hors portée de leur contrat. Contacté par la société, l'artiste affirme avoir conçu une affiche publicitaire pour la boisson Tembo et selon l'artiste le logotype conçu ne devrait être utilisé que pour les affiches et verres.
-Leur différend a été porté devant la justice qui a tranché au premier et au second degré en faveur de la Bracongo. Les deux argumentaires ont été présentés aux juges et les juges ont statué conformément à la loi[4].
+Leur différend a été porté devant la justice qui a tranché au premier et au second degré en faveur de la Bracongo. Les deux argumentaires ont été présentés aux juges et les juges ont statué conformément à la loi.
 </t>
         </is>
       </c>
